--- a/Data/tesis_limpias2.xlsx
+++ b/Data/tesis_limpias2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3822" uniqueCount="2887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3832" uniqueCount="2887">
   <si>
     <t>TÍTULO</t>
   </si>
@@ -8593,6 +8593,9 @@
     <t>ORLANDO CANCHICA</t>
   </si>
   <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
     <t>DOUGLAS APONTE</t>
   </si>
   <si>
@@ -8666,9 +8669,6 @@
   </si>
   <si>
     <t>LOVERA ROSA</t>
-  </si>
-  <si>
-    <t>S/P</t>
   </si>
   <si>
     <t>MENDEZ DARCY</t>
@@ -11829,6 +11829,9 @@
       <c r="B172" t="s">
         <v>174</v>
       </c>
+      <c r="E172" t="s">
+        <v>2859</v>
+      </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="1">
@@ -11837,6 +11840,9 @@
       <c r="B173" t="s">
         <v>175</v>
       </c>
+      <c r="E173" t="s">
+        <v>2859</v>
+      </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="1">
@@ -11937,7 +11943,7 @@
         <v>2067</v>
       </c>
       <c r="E179" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -11954,7 +11960,7 @@
         <v>2068</v>
       </c>
       <c r="E180" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -11971,7 +11977,7 @@
         <v>2069</v>
       </c>
       <c r="E181" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -11988,7 +11994,7 @@
         <v>2070</v>
       </c>
       <c r="E182" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -12005,7 +12011,7 @@
         <v>2071</v>
       </c>
       <c r="E183" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -12022,7 +12028,7 @@
         <v>2072</v>
       </c>
       <c r="E184" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -12039,7 +12045,7 @@
         <v>2073</v>
       </c>
       <c r="E185" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -12056,7 +12062,7 @@
         <v>2074</v>
       </c>
       <c r="E186" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -12073,7 +12079,7 @@
         <v>2075</v>
       </c>
       <c r="E187" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -12090,7 +12096,7 @@
         <v>2076</v>
       </c>
       <c r="E188" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -12546,7 +12552,7 @@
         <v>2102</v>
       </c>
       <c r="E215" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -12563,7 +12569,7 @@
         <v>2103</v>
       </c>
       <c r="E216" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -12580,7 +12586,7 @@
         <v>2104</v>
       </c>
       <c r="E217" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -12597,7 +12603,7 @@
         <v>2105</v>
       </c>
       <c r="E218" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -12614,7 +12620,7 @@
         <v>2106</v>
       </c>
       <c r="E219" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -12631,7 +12637,7 @@
         <v>2107</v>
       </c>
       <c r="E220" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -12648,7 +12654,7 @@
         <v>2108</v>
       </c>
       <c r="E221" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -12665,7 +12671,7 @@
         <v>2109</v>
       </c>
       <c r="E222" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -12682,7 +12688,7 @@
         <v>2110</v>
       </c>
       <c r="E223" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -12699,7 +12705,7 @@
         <v>2111</v>
       </c>
       <c r="E224" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -12716,7 +12722,7 @@
         <v>2112</v>
       </c>
       <c r="E225" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -12733,7 +12739,7 @@
         <v>2113</v>
       </c>
       <c r="E226" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -12750,7 +12756,7 @@
         <v>2114</v>
       </c>
       <c r="E227" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -12767,7 +12773,7 @@
         <v>2115</v>
       </c>
       <c r="E228" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -12784,7 +12790,7 @@
         <v>2116</v>
       </c>
       <c r="E229" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -12801,7 +12807,7 @@
         <v>2117</v>
       </c>
       <c r="E230" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -12818,7 +12824,7 @@
         <v>2118</v>
       </c>
       <c r="E231" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -12835,7 +12841,7 @@
         <v>2119</v>
       </c>
       <c r="E232" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -12945,7 +12951,7 @@
         <v>2123</v>
       </c>
       <c r="E239" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -12962,7 +12968,7 @@
         <v>2124</v>
       </c>
       <c r="E240" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -12979,7 +12985,7 @@
         <v>2125</v>
       </c>
       <c r="E241" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -12996,7 +13002,7 @@
         <v>2126</v>
       </c>
       <c r="E242" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -13013,7 +13019,7 @@
         <v>2127</v>
       </c>
       <c r="E243" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -13030,7 +13036,7 @@
         <v>2128</v>
       </c>
       <c r="E244" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -13047,7 +13053,7 @@
         <v>2129</v>
       </c>
       <c r="E245" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -13064,7 +13070,7 @@
         <v>2130</v>
       </c>
       <c r="E246" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -13081,7 +13087,7 @@
         <v>2131</v>
       </c>
       <c r="E247" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -13098,7 +13104,7 @@
         <v>2132</v>
       </c>
       <c r="E248" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -13115,7 +13121,7 @@
         <v>2133</v>
       </c>
       <c r="E249" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -13129,7 +13135,7 @@
         <v>1217</v>
       </c>
       <c r="E250" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -13146,7 +13152,7 @@
         <v>2134</v>
       </c>
       <c r="E251" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -13163,7 +13169,7 @@
         <v>2135</v>
       </c>
       <c r="E252" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -13180,7 +13186,7 @@
         <v>2136</v>
       </c>
       <c r="E253" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -13197,7 +13203,7 @@
         <v>2137</v>
       </c>
       <c r="E254" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -13214,7 +13220,7 @@
         <v>2138</v>
       </c>
       <c r="E255" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -13231,7 +13237,7 @@
         <v>2139</v>
       </c>
       <c r="E256" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -13248,7 +13254,7 @@
         <v>2140</v>
       </c>
       <c r="E257" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -13265,7 +13271,7 @@
         <v>2141</v>
       </c>
       <c r="E258" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -13282,7 +13288,7 @@
         <v>2142</v>
       </c>
       <c r="E259" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -13299,7 +13305,7 @@
         <v>2143</v>
       </c>
       <c r="E260" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -13316,7 +13322,7 @@
         <v>2144</v>
       </c>
       <c r="E261" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -13333,7 +13339,7 @@
         <v>2145</v>
       </c>
       <c r="E262" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -13350,7 +13356,7 @@
         <v>2146</v>
       </c>
       <c r="E263" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -13367,7 +13373,7 @@
         <v>2147</v>
       </c>
       <c r="E264" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -13384,7 +13390,7 @@
         <v>2148</v>
       </c>
       <c r="E265" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -13401,7 +13407,7 @@
         <v>2149</v>
       </c>
       <c r="E266" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -13418,7 +13424,7 @@
         <v>2150</v>
       </c>
       <c r="E267" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -13435,7 +13441,7 @@
         <v>2151</v>
       </c>
       <c r="E268" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -13452,7 +13458,7 @@
         <v>2152</v>
       </c>
       <c r="E269" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -13469,7 +13475,7 @@
         <v>2153</v>
       </c>
       <c r="E270" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -13486,7 +13492,7 @@
         <v>2154</v>
       </c>
       <c r="E271" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -13503,7 +13509,7 @@
         <v>2155</v>
       </c>
       <c r="E272" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -13520,7 +13526,7 @@
         <v>2156</v>
       </c>
       <c r="E273" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -13537,7 +13543,7 @@
         <v>2157</v>
       </c>
       <c r="E274" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -13554,7 +13560,7 @@
         <v>2158</v>
       </c>
       <c r="E275" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -13571,7 +13577,7 @@
         <v>2159</v>
       </c>
       <c r="E276" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -13588,7 +13594,7 @@
         <v>2160</v>
       </c>
       <c r="E277" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -13605,7 +13611,7 @@
         <v>2161</v>
       </c>
       <c r="E278" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -13622,7 +13628,7 @@
         <v>2162</v>
       </c>
       <c r="E279" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -13639,7 +13645,7 @@
         <v>2163</v>
       </c>
       <c r="E280" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -13656,7 +13662,7 @@
         <v>2164</v>
       </c>
       <c r="E281" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -13673,7 +13679,7 @@
         <v>2165</v>
       </c>
       <c r="E282" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -13690,7 +13696,7 @@
         <v>2166</v>
       </c>
       <c r="E283" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -13707,7 +13713,7 @@
         <v>2167</v>
       </c>
       <c r="E284" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -13724,7 +13730,7 @@
         <v>2168</v>
       </c>
       <c r="E285" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -13741,7 +13747,7 @@
         <v>2169</v>
       </c>
       <c r="E286" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -13758,7 +13764,7 @@
         <v>2170</v>
       </c>
       <c r="E287" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -13775,7 +13781,7 @@
         <v>2171</v>
       </c>
       <c r="E288" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -13792,7 +13798,7 @@
         <v>2172</v>
       </c>
       <c r="E289" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -13809,7 +13815,7 @@
         <v>2173</v>
       </c>
       <c r="E290" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -13826,7 +13832,7 @@
         <v>2174</v>
       </c>
       <c r="E291" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -13843,7 +13849,7 @@
         <v>2175</v>
       </c>
       <c r="E292" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -13857,7 +13863,7 @@
         <v>1260</v>
       </c>
       <c r="E293" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -13874,7 +13880,7 @@
         <v>2176</v>
       </c>
       <c r="E294" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -13891,7 +13897,7 @@
         <v>2177</v>
       </c>
       <c r="E295" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -13908,7 +13914,7 @@
         <v>2178</v>
       </c>
       <c r="E296" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -13925,7 +13931,7 @@
         <v>2179</v>
       </c>
       <c r="E297" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -13942,7 +13948,7 @@
         <v>2180</v>
       </c>
       <c r="E298" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -13959,7 +13965,7 @@
         <v>2181</v>
       </c>
       <c r="E299" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -13976,7 +13982,7 @@
         <v>2182</v>
       </c>
       <c r="E300" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -13993,7 +13999,7 @@
         <v>2183</v>
       </c>
       <c r="E301" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -14010,7 +14016,7 @@
         <v>2184</v>
       </c>
       <c r="E302" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -14027,7 +14033,7 @@
         <v>2185</v>
       </c>
       <c r="E303" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -14044,7 +14050,7 @@
         <v>2186</v>
       </c>
       <c r="E304" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -14061,7 +14067,7 @@
         <v>2187</v>
       </c>
       <c r="E305" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -14078,7 +14084,7 @@
         <v>2188</v>
       </c>
       <c r="E306" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -14095,7 +14101,7 @@
         <v>2189</v>
       </c>
       <c r="E307" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -14112,7 +14118,7 @@
         <v>2190</v>
       </c>
       <c r="E308" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -14622,7 +14628,7 @@
         <v>2220</v>
       </c>
       <c r="E338" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -14639,7 +14645,7 @@
         <v>2221</v>
       </c>
       <c r="E339" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -14656,7 +14662,7 @@
         <v>2222</v>
       </c>
       <c r="E340" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -14673,7 +14679,7 @@
         <v>2223</v>
       </c>
       <c r="E341" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -14690,7 +14696,7 @@
         <v>2224</v>
       </c>
       <c r="E342" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -14707,7 +14713,7 @@
         <v>2225</v>
       </c>
       <c r="E343" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -14724,7 +14730,7 @@
         <v>2226</v>
       </c>
       <c r="E344" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -14741,7 +14747,7 @@
         <v>2227</v>
       </c>
       <c r="E345" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -14758,7 +14764,7 @@
         <v>2132</v>
       </c>
       <c r="E346" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -14775,7 +14781,7 @@
         <v>2228</v>
       </c>
       <c r="E347" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -14792,7 +14798,7 @@
         <v>2229</v>
       </c>
       <c r="E348" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -14809,7 +14815,7 @@
         <v>2230</v>
       </c>
       <c r="E349" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -14826,7 +14832,7 @@
         <v>2231</v>
       </c>
       <c r="E350" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -14843,7 +14849,7 @@
         <v>2232</v>
       </c>
       <c r="E351" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -14860,7 +14866,7 @@
         <v>2233</v>
       </c>
       <c r="E352" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -14877,7 +14883,7 @@
         <v>2234</v>
       </c>
       <c r="E353" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -14894,7 +14900,7 @@
         <v>2235</v>
       </c>
       <c r="E354" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -14911,7 +14917,7 @@
         <v>2236</v>
       </c>
       <c r="E355" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -14928,7 +14934,7 @@
         <v>2237</v>
       </c>
       <c r="E356" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -14945,7 +14951,7 @@
         <v>2238</v>
       </c>
       <c r="E357" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -14962,7 +14968,7 @@
         <v>2239</v>
       </c>
       <c r="E358" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -14979,7 +14985,7 @@
         <v>2240</v>
       </c>
       <c r="E359" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -14996,7 +15002,7 @@
         <v>2241</v>
       </c>
       <c r="E360" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -15013,7 +15019,7 @@
         <v>2242</v>
       </c>
       <c r="E361" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -15030,7 +15036,7 @@
         <v>2243</v>
       </c>
       <c r="E362" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -15047,7 +15053,7 @@
         <v>2244</v>
       </c>
       <c r="E363" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -15064,7 +15070,7 @@
         <v>2245</v>
       </c>
       <c r="E364" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -15081,7 +15087,7 @@
         <v>2246</v>
       </c>
       <c r="E365" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -15098,7 +15104,7 @@
         <v>2247</v>
       </c>
       <c r="E366" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -15115,7 +15121,7 @@
         <v>2248</v>
       </c>
       <c r="E367" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -15132,7 +15138,7 @@
         <v>2249</v>
       </c>
       <c r="E368" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -15149,7 +15155,7 @@
         <v>2250</v>
       </c>
       <c r="E369" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -15166,7 +15172,7 @@
         <v>2251</v>
       </c>
       <c r="E370" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -15183,7 +15189,7 @@
         <v>2252</v>
       </c>
       <c r="E371" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -15200,7 +15206,7 @@
         <v>2253</v>
       </c>
       <c r="E372" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -15217,7 +15223,7 @@
         <v>2254</v>
       </c>
       <c r="E373" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -15234,7 +15240,7 @@
         <v>2255</v>
       </c>
       <c r="E374" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -15251,7 +15257,7 @@
         <v>2256</v>
       </c>
       <c r="E375" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -15268,7 +15274,7 @@
         <v>2257</v>
       </c>
       <c r="E376" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -15282,7 +15288,7 @@
         <v>1344</v>
       </c>
       <c r="E377" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -15299,7 +15305,7 @@
         <v>2258</v>
       </c>
       <c r="E378" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -15316,7 +15322,7 @@
         <v>2259</v>
       </c>
       <c r="E379" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -15333,7 +15339,7 @@
         <v>2260</v>
       </c>
       <c r="E380" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -15350,7 +15356,7 @@
         <v>2261</v>
       </c>
       <c r="E381" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -15367,7 +15373,7 @@
         <v>2262</v>
       </c>
       <c r="E382" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -15384,7 +15390,7 @@
         <v>2263</v>
       </c>
       <c r="E383" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -15401,7 +15407,7 @@
         <v>2264</v>
       </c>
       <c r="E384" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -15418,7 +15424,7 @@
         <v>2265</v>
       </c>
       <c r="E385" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -15435,7 +15441,7 @@
         <v>2266</v>
       </c>
       <c r="E386" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -15452,7 +15458,7 @@
         <v>2267</v>
       </c>
       <c r="E387" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -15469,7 +15475,7 @@
         <v>2268</v>
       </c>
       <c r="E388" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -15486,7 +15492,7 @@
         <v>2269</v>
       </c>
       <c r="E389" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -15503,7 +15509,7 @@
         <v>2270</v>
       </c>
       <c r="E390" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -15520,7 +15526,7 @@
         <v>2271</v>
       </c>
       <c r="E391" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -15537,7 +15543,7 @@
         <v>2272</v>
       </c>
       <c r="E392" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -15554,7 +15560,7 @@
         <v>2273</v>
       </c>
       <c r="E393" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -15571,7 +15577,7 @@
         <v>2274</v>
       </c>
       <c r="E394" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -15588,7 +15594,7 @@
         <v>2275</v>
       </c>
       <c r="E395" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -15605,7 +15611,7 @@
         <v>2276</v>
       </c>
       <c r="E396" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -15622,7 +15628,7 @@
         <v>2277</v>
       </c>
       <c r="E397" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -15639,7 +15645,7 @@
         <v>2278</v>
       </c>
       <c r="E398" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -15656,7 +15662,7 @@
         <v>2279</v>
       </c>
       <c r="E399" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -15673,7 +15679,7 @@
         <v>2280</v>
       </c>
       <c r="E400" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -15690,7 +15696,7 @@
         <v>2281</v>
       </c>
       <c r="E401" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -15707,7 +15713,7 @@
         <v>2282</v>
       </c>
       <c r="E402" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -15724,7 +15730,7 @@
         <v>2283</v>
       </c>
       <c r="E403" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -15741,7 +15747,7 @@
         <v>2284</v>
       </c>
       <c r="E404" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -15758,7 +15764,7 @@
         <v>2285</v>
       </c>
       <c r="E405" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -15775,7 +15781,7 @@
         <v>2286</v>
       </c>
       <c r="E406" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -15792,7 +15798,7 @@
         <v>2287</v>
       </c>
       <c r="E407" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -15809,7 +15815,7 @@
         <v>2288</v>
       </c>
       <c r="E408" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -15826,7 +15832,7 @@
         <v>2289</v>
       </c>
       <c r="E409" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -15843,7 +15849,7 @@
         <v>2290</v>
       </c>
       <c r="E410" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -15860,7 +15866,7 @@
         <v>2291</v>
       </c>
       <c r="E411" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -15877,7 +15883,7 @@
         <v>2292</v>
       </c>
       <c r="E412" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -15894,7 +15900,7 @@
         <v>2293</v>
       </c>
       <c r="E413" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -15911,7 +15917,7 @@
         <v>2294</v>
       </c>
       <c r="E414" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -15928,7 +15934,7 @@
         <v>2295</v>
       </c>
       <c r="E415" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -15945,7 +15951,7 @@
         <v>2296</v>
       </c>
       <c r="E416" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -15962,7 +15968,7 @@
         <v>2297</v>
       </c>
       <c r="E417" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -15979,7 +15985,7 @@
         <v>2298</v>
       </c>
       <c r="E418" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -15996,7 +16002,7 @@
         <v>2299</v>
       </c>
       <c r="E419" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -16676,7 +16682,7 @@
         <v>2339</v>
       </c>
       <c r="E459" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -16693,7 +16699,7 @@
         <v>2340</v>
       </c>
       <c r="E460" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -16710,7 +16716,7 @@
         <v>2341</v>
       </c>
       <c r="E461" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -16727,7 +16733,7 @@
         <v>2342</v>
       </c>
       <c r="E462" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -16744,7 +16750,7 @@
         <v>2343</v>
       </c>
       <c r="E463" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -16761,7 +16767,7 @@
         <v>2344</v>
       </c>
       <c r="E464" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -16778,7 +16784,7 @@
         <v>2345</v>
       </c>
       <c r="E465" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -16795,7 +16801,7 @@
         <v>2346</v>
       </c>
       <c r="E466" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -16812,7 +16818,7 @@
         <v>2347</v>
       </c>
       <c r="E467" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -16829,7 +16835,7 @@
         <v>2348</v>
       </c>
       <c r="E468" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -16846,7 +16852,7 @@
         <v>2349</v>
       </c>
       <c r="E469" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -16863,7 +16869,7 @@
         <v>2350</v>
       </c>
       <c r="E470" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -16880,7 +16886,7 @@
         <v>2351</v>
       </c>
       <c r="E471" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -16897,7 +16903,7 @@
         <v>2352</v>
       </c>
       <c r="E472" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -16914,7 +16920,7 @@
         <v>2353</v>
       </c>
       <c r="E473" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -16931,7 +16937,7 @@
         <v>2354</v>
       </c>
       <c r="E474" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -16948,7 +16954,7 @@
         <v>2355</v>
       </c>
       <c r="E475" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -16965,7 +16971,7 @@
         <v>2356</v>
       </c>
       <c r="E476" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -16982,7 +16988,7 @@
         <v>2357</v>
       </c>
       <c r="E477" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -16999,7 +17005,7 @@
         <v>2358</v>
       </c>
       <c r="E478" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -17016,7 +17022,7 @@
         <v>2359</v>
       </c>
       <c r="E479" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -17033,7 +17039,7 @@
         <v>2360</v>
       </c>
       <c r="E480" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -17050,7 +17056,7 @@
         <v>2361</v>
       </c>
       <c r="E481" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -17067,7 +17073,7 @@
         <v>2362</v>
       </c>
       <c r="E482" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -17084,7 +17090,7 @@
         <v>2363</v>
       </c>
       <c r="E483" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -17101,7 +17107,7 @@
         <v>2364</v>
       </c>
       <c r="E484" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -17390,7 +17396,7 @@
         <v>2381</v>
       </c>
       <c r="E501" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -17407,7 +17413,7 @@
         <v>2382</v>
       </c>
       <c r="E502" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -17424,7 +17430,7 @@
         <v>2383</v>
       </c>
       <c r="E503" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -17441,7 +17447,7 @@
         <v>2384</v>
       </c>
       <c r="E504" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -17458,7 +17464,7 @@
         <v>2385</v>
       </c>
       <c r="E505" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -17475,7 +17481,7 @@
         <v>2386</v>
       </c>
       <c r="E506" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -17492,7 +17498,7 @@
         <v>2387</v>
       </c>
       <c r="E507" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -17509,7 +17515,7 @@
         <v>2388</v>
       </c>
       <c r="E508" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -17526,7 +17532,7 @@
         <v>2389</v>
       </c>
       <c r="E509" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -17543,7 +17549,7 @@
         <v>2390</v>
       </c>
       <c r="E510" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -17560,7 +17566,7 @@
         <v>2391</v>
       </c>
       <c r="E511" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -17577,7 +17583,7 @@
         <v>2392</v>
       </c>
       <c r="E512" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -17594,7 +17600,7 @@
         <v>2393</v>
       </c>
       <c r="E513" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -17611,7 +17617,7 @@
         <v>2394</v>
       </c>
       <c r="E514" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -17628,7 +17634,7 @@
         <v>2395</v>
       </c>
       <c r="E515" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -17645,7 +17651,7 @@
         <v>2396</v>
       </c>
       <c r="E516" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -17662,7 +17668,7 @@
         <v>2397</v>
       </c>
       <c r="E517" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -17679,7 +17685,7 @@
         <v>2398</v>
       </c>
       <c r="E518" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -17696,7 +17702,7 @@
         <v>2399</v>
       </c>
       <c r="E519" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -17713,7 +17719,7 @@
         <v>2400</v>
       </c>
       <c r="E520" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -17730,7 +17736,7 @@
         <v>2401</v>
       </c>
       <c r="E521" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -17747,7 +17753,7 @@
         <v>2402</v>
       </c>
       <c r="E522" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -17764,7 +17770,7 @@
         <v>2403</v>
       </c>
       <c r="E523" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -17781,7 +17787,7 @@
         <v>2404</v>
       </c>
       <c r="E524" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -17798,7 +17804,7 @@
         <v>2405</v>
       </c>
       <c r="E525" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -17815,7 +17821,7 @@
         <v>2406</v>
       </c>
       <c r="E526" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -17832,7 +17838,7 @@
         <v>2407</v>
       </c>
       <c r="E527" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -17849,7 +17855,7 @@
         <v>2408</v>
       </c>
       <c r="E528" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -17866,7 +17872,7 @@
         <v>2409</v>
       </c>
       <c r="E529" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -17883,7 +17889,7 @@
         <v>2410</v>
       </c>
       <c r="E530" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -17900,7 +17906,7 @@
         <v>2411</v>
       </c>
       <c r="E531" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -17917,7 +17923,7 @@
         <v>2412</v>
       </c>
       <c r="E532" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -17934,7 +17940,7 @@
         <v>2413</v>
       </c>
       <c r="E533" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -17951,7 +17957,7 @@
         <v>2414</v>
       </c>
       <c r="E534" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -17968,7 +17974,7 @@
         <v>2415</v>
       </c>
       <c r="E535" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -17985,7 +17991,7 @@
         <v>2416</v>
       </c>
       <c r="E536" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -18002,7 +18008,7 @@
         <v>2417</v>
       </c>
       <c r="E537" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -18019,7 +18025,7 @@
         <v>2418</v>
       </c>
       <c r="E538" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -18036,7 +18042,7 @@
         <v>2419</v>
       </c>
       <c r="E539" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -18053,7 +18059,7 @@
         <v>2420</v>
       </c>
       <c r="E540" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -18070,7 +18076,7 @@
         <v>2421</v>
       </c>
       <c r="E541" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -18087,7 +18093,7 @@
         <v>2422</v>
       </c>
       <c r="E542" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -18104,7 +18110,7 @@
         <v>2423</v>
       </c>
       <c r="E543" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -18121,7 +18127,7 @@
         <v>2424</v>
       </c>
       <c r="E544" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -18138,7 +18144,7 @@
         <v>2425</v>
       </c>
       <c r="E545" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -18155,7 +18161,7 @@
         <v>2426</v>
       </c>
       <c r="E546" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -18172,7 +18178,7 @@
         <v>2427</v>
       </c>
       <c r="E547" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -18189,7 +18195,7 @@
         <v>2428</v>
       </c>
       <c r="E548" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -18206,7 +18212,7 @@
         <v>2429</v>
       </c>
       <c r="E549" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -18223,7 +18229,7 @@
         <v>2430</v>
       </c>
       <c r="E550" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -18240,7 +18246,7 @@
         <v>2431</v>
       </c>
       <c r="E551" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -18257,7 +18263,7 @@
         <v>2432</v>
       </c>
       <c r="E552" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -18274,7 +18280,7 @@
         <v>2433</v>
       </c>
       <c r="E553" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -18291,7 +18297,7 @@
         <v>2434</v>
       </c>
       <c r="E554" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -18308,7 +18314,7 @@
         <v>2435</v>
       </c>
       <c r="E555" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -18325,7 +18331,7 @@
         <v>2436</v>
       </c>
       <c r="E556" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -18342,7 +18348,7 @@
         <v>2437</v>
       </c>
       <c r="E557" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -18359,7 +18365,7 @@
         <v>2438</v>
       </c>
       <c r="E558" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -18376,7 +18382,7 @@
         <v>2439</v>
       </c>
       <c r="E559" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -18393,7 +18399,7 @@
         <v>2440</v>
       </c>
       <c r="E560" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -18410,7 +18416,7 @@
         <v>2441</v>
       </c>
       <c r="E561" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -18427,7 +18433,7 @@
         <v>2442</v>
       </c>
       <c r="E562" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -18444,7 +18450,7 @@
         <v>2443</v>
       </c>
       <c r="E563" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -18461,7 +18467,7 @@
         <v>2444</v>
       </c>
       <c r="E564" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -18478,7 +18484,7 @@
         <v>2445</v>
       </c>
       <c r="E565" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -18495,7 +18501,7 @@
         <v>2446</v>
       </c>
       <c r="E566" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -18512,7 +18518,7 @@
         <v>2447</v>
       </c>
       <c r="E567" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -18529,7 +18535,7 @@
         <v>2448</v>
       </c>
       <c r="E568" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -18546,7 +18552,7 @@
         <v>2449</v>
       </c>
       <c r="E569" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -18563,7 +18569,7 @@
         <v>2450</v>
       </c>
       <c r="E570" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -18580,7 +18586,7 @@
         <v>2451</v>
       </c>
       <c r="E571" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -18597,7 +18603,7 @@
         <v>2452</v>
       </c>
       <c r="E572" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -18614,7 +18620,7 @@
         <v>2453</v>
       </c>
       <c r="E573" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -18631,7 +18637,7 @@
         <v>2454</v>
       </c>
       <c r="E574" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -18648,7 +18654,7 @@
         <v>2455</v>
       </c>
       <c r="E575" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -18665,7 +18671,7 @@
         <v>2456</v>
       </c>
       <c r="E576" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -18682,7 +18688,7 @@
         <v>2457</v>
       </c>
       <c r="E577" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -18699,7 +18705,7 @@
         <v>2458</v>
       </c>
       <c r="E578" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -18716,7 +18722,7 @@
         <v>2459</v>
       </c>
       <c r="E579" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -18733,7 +18739,7 @@
         <v>2460</v>
       </c>
       <c r="E580" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -18750,7 +18756,7 @@
         <v>2461</v>
       </c>
       <c r="E581" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -18767,7 +18773,7 @@
         <v>2462</v>
       </c>
       <c r="E582" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -18784,7 +18790,7 @@
         <v>2463</v>
       </c>
       <c r="E583" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -18801,7 +18807,7 @@
         <v>2464</v>
       </c>
       <c r="E584" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -18818,7 +18824,7 @@
         <v>2465</v>
       </c>
       <c r="E585" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -18835,7 +18841,7 @@
         <v>2466</v>
       </c>
       <c r="E586" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -18852,7 +18858,7 @@
         <v>2467</v>
       </c>
       <c r="E587" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -18869,7 +18875,7 @@
         <v>2468</v>
       </c>
       <c r="E588" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -18886,7 +18892,7 @@
         <v>2469</v>
       </c>
       <c r="E589" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -18903,7 +18909,7 @@
         <v>2470</v>
       </c>
       <c r="E590" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -18920,7 +18926,7 @@
         <v>2471</v>
       </c>
       <c r="E591" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -18937,7 +18943,7 @@
         <v>2472</v>
       </c>
       <c r="E592" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -18954,7 +18960,7 @@
         <v>2473</v>
       </c>
       <c r="E593" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -18971,7 +18977,7 @@
         <v>2474</v>
       </c>
       <c r="E594" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -18988,7 +18994,7 @@
         <v>2475</v>
       </c>
       <c r="E595" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -19005,7 +19011,7 @@
         <v>2476</v>
       </c>
       <c r="E596" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -19022,7 +19028,7 @@
         <v>2477</v>
       </c>
       <c r="E597" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -19039,7 +19045,7 @@
         <v>2478</v>
       </c>
       <c r="E598" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -19056,7 +19062,7 @@
         <v>2479</v>
       </c>
       <c r="E599" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -19073,7 +19079,7 @@
         <v>2480</v>
       </c>
       <c r="E600" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -19090,7 +19096,7 @@
         <v>2481</v>
       </c>
       <c r="E601" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -19107,7 +19113,7 @@
         <v>2482</v>
       </c>
       <c r="E602" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -19124,7 +19130,7 @@
         <v>2483</v>
       </c>
       <c r="E603" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -19141,7 +19147,7 @@
         <v>2484</v>
       </c>
       <c r="E604" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -19753,7 +19759,7 @@
         <v>2520</v>
       </c>
       <c r="E640" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -19770,7 +19776,7 @@
         <v>2521</v>
       </c>
       <c r="E641" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -19787,7 +19793,7 @@
         <v>2522</v>
       </c>
       <c r="E642" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -19804,7 +19810,7 @@
         <v>2523</v>
       </c>
       <c r="E643" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -19821,7 +19827,7 @@
         <v>2524</v>
       </c>
       <c r="E644" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -19838,7 +19844,7 @@
         <v>2525</v>
       </c>
       <c r="E645" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -19855,7 +19861,7 @@
         <v>2133</v>
       </c>
       <c r="E646" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -19872,7 +19878,7 @@
         <v>2526</v>
       </c>
       <c r="E647" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -19889,7 +19895,7 @@
         <v>2527</v>
       </c>
       <c r="E648" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -19906,7 +19912,7 @@
         <v>2528</v>
       </c>
       <c r="E649" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -19923,7 +19929,7 @@
         <v>2529</v>
       </c>
       <c r="E650" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -19940,7 +19946,7 @@
         <v>2530</v>
       </c>
       <c r="E651" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -19957,7 +19963,7 @@
         <v>2531</v>
       </c>
       <c r="E652" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -19974,7 +19980,7 @@
         <v>2532</v>
       </c>
       <c r="E653" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -19991,7 +19997,7 @@
         <v>2533</v>
       </c>
       <c r="E654" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -20008,7 +20014,7 @@
         <v>2534</v>
       </c>
       <c r="E655" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -20025,7 +20031,7 @@
         <v>2535</v>
       </c>
       <c r="E656" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -20042,7 +20048,7 @@
         <v>2536</v>
       </c>
       <c r="E657" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -20059,7 +20065,7 @@
         <v>2537</v>
       </c>
       <c r="E658" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -20076,7 +20082,7 @@
         <v>2538</v>
       </c>
       <c r="E659" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -20093,7 +20099,7 @@
         <v>2539</v>
       </c>
       <c r="E660" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -20110,7 +20116,7 @@
         <v>2540</v>
       </c>
       <c r="E661" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -20127,7 +20133,7 @@
         <v>2541</v>
       </c>
       <c r="E662" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -20144,7 +20150,7 @@
         <v>2542</v>
       </c>
       <c r="E663" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -20161,7 +20167,7 @@
         <v>2543</v>
       </c>
       <c r="E664" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -20178,7 +20184,7 @@
         <v>2544</v>
       </c>
       <c r="E665" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -20195,7 +20201,7 @@
         <v>2545</v>
       </c>
       <c r="E666" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -20212,7 +20218,7 @@
         <v>2546</v>
       </c>
       <c r="E667" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -20229,7 +20235,7 @@
         <v>2547</v>
       </c>
       <c r="E668" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -20246,7 +20252,7 @@
         <v>2548</v>
       </c>
       <c r="E669" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -20263,7 +20269,7 @@
         <v>2549</v>
       </c>
       <c r="E670" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -20280,7 +20286,7 @@
         <v>2550</v>
       </c>
       <c r="E671" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -20297,7 +20303,7 @@
         <v>2551</v>
       </c>
       <c r="E672" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -20314,7 +20320,7 @@
         <v>2552</v>
       </c>
       <c r="E673" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -20331,7 +20337,7 @@
         <v>2553</v>
       </c>
       <c r="E674" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -20348,7 +20354,7 @@
         <v>2554</v>
       </c>
       <c r="E675" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -20416,7 +20422,7 @@
         <v>2558</v>
       </c>
       <c r="E679" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -20433,7 +20439,7 @@
         <v>2559</v>
       </c>
       <c r="E680" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -20450,7 +20456,7 @@
         <v>2560</v>
       </c>
       <c r="E681" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -20467,7 +20473,7 @@
         <v>2561</v>
       </c>
       <c r="E682" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -20790,7 +20796,7 @@
         <v>2580</v>
       </c>
       <c r="E701" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="702" spans="1:5">
@@ -20807,7 +20813,7 @@
         <v>2581</v>
       </c>
       <c r="E702" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -20824,7 +20830,7 @@
         <v>2582</v>
       </c>
       <c r="E703" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="704" spans="1:5">
@@ -20841,7 +20847,7 @@
         <v>2583</v>
       </c>
       <c r="E704" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="705" spans="1:5">
@@ -20858,7 +20864,7 @@
         <v>2584</v>
       </c>
       <c r="E705" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="706" spans="1:5">
@@ -20875,7 +20881,7 @@
         <v>2585</v>
       </c>
       <c r="E706" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="707" spans="1:5">
@@ -20892,7 +20898,7 @@
         <v>2586</v>
       </c>
       <c r="E707" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="708" spans="1:5">
@@ -20909,7 +20915,7 @@
         <v>2587</v>
       </c>
       <c r="E708" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="709" spans="1:5">
@@ -20926,7 +20932,7 @@
         <v>2588</v>
       </c>
       <c r="E709" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="710" spans="1:5">
@@ -20943,7 +20949,7 @@
         <v>2589</v>
       </c>
       <c r="E710" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="711" spans="1:5">
@@ -20960,7 +20966,7 @@
         <v>2590</v>
       </c>
       <c r="E711" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="712" spans="1:5">
@@ -20977,7 +20983,7 @@
         <v>2591</v>
       </c>
       <c r="E712" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="713" spans="1:5">
@@ -20994,7 +21000,7 @@
         <v>2592</v>
       </c>
       <c r="E713" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="714" spans="1:5">
@@ -21011,7 +21017,7 @@
         <v>2593</v>
       </c>
       <c r="E714" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="715" spans="1:5">
@@ -21028,7 +21034,7 @@
         <v>2594</v>
       </c>
       <c r="E715" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="716" spans="1:5">
@@ -21045,7 +21051,7 @@
         <v>2595</v>
       </c>
       <c r="E716" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -21062,7 +21068,7 @@
         <v>2596</v>
       </c>
       <c r="E717" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -21079,7 +21085,7 @@
         <v>2597</v>
       </c>
       <c r="E718" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -21198,7 +21204,7 @@
         <v>2604</v>
       </c>
       <c r="E725" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="726" spans="1:5">
@@ -21215,7 +21221,7 @@
         <v>2605</v>
       </c>
       <c r="E726" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="727" spans="1:5">
@@ -21232,7 +21238,7 @@
         <v>2606</v>
       </c>
       <c r="E727" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="728" spans="1:5">
@@ -21249,7 +21255,7 @@
         <v>2607</v>
       </c>
       <c r="E728" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="729" spans="1:5">
@@ -21266,7 +21272,7 @@
         <v>2608</v>
       </c>
       <c r="E729" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="730" spans="1:5">
@@ -21283,7 +21289,7 @@
         <v>2609</v>
       </c>
       <c r="E730" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="731" spans="1:5">
@@ -21300,7 +21306,7 @@
         <v>2610</v>
       </c>
       <c r="E731" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="732" spans="1:5">
@@ -21317,7 +21323,7 @@
         <v>2611</v>
       </c>
       <c r="E732" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="733" spans="1:5">
@@ -21334,7 +21340,7 @@
         <v>2612</v>
       </c>
       <c r="E733" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="734" spans="1:5">
@@ -21351,7 +21357,7 @@
         <v>2613</v>
       </c>
       <c r="E734" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -21368,7 +21374,7 @@
         <v>2614</v>
       </c>
       <c r="E735" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="736" spans="1:5">
@@ -21385,7 +21391,7 @@
         <v>2615</v>
       </c>
       <c r="E736" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="737" spans="1:5">
@@ -21402,7 +21408,7 @@
         <v>2616</v>
       </c>
       <c r="E737" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="738" spans="1:5">
@@ -21419,7 +21425,7 @@
         <v>2617</v>
       </c>
       <c r="E738" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -21436,7 +21442,7 @@
         <v>2618</v>
       </c>
       <c r="E739" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="740" spans="1:5">
@@ -21453,7 +21459,7 @@
         <v>2619</v>
       </c>
       <c r="E740" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -21470,7 +21476,7 @@
         <v>2620</v>
       </c>
       <c r="E741" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -21487,7 +21493,7 @@
         <v>2621</v>
       </c>
       <c r="E742" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -21504,7 +21510,7 @@
         <v>2622</v>
       </c>
       <c r="E743" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -21521,7 +21527,7 @@
         <v>2623</v>
       </c>
       <c r="E744" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -21538,7 +21544,7 @@
         <v>2624</v>
       </c>
       <c r="E745" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -21555,7 +21561,7 @@
         <v>2625</v>
       </c>
       <c r="E746" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="747" spans="1:5">
@@ -21572,7 +21578,7 @@
         <v>2626</v>
       </c>
       <c r="E747" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -21589,7 +21595,7 @@
         <v>2627</v>
       </c>
       <c r="E748" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="749" spans="1:5">
@@ -21606,7 +21612,7 @@
         <v>2628</v>
       </c>
       <c r="E749" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="750" spans="1:5">
@@ -21623,7 +21629,7 @@
         <v>2629</v>
       </c>
       <c r="E750" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="751" spans="1:5">
@@ -21640,7 +21646,7 @@
         <v>2630</v>
       </c>
       <c r="E751" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="752" spans="1:5">
@@ -21657,7 +21663,7 @@
         <v>2631</v>
       </c>
       <c r="E752" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="753" spans="1:5">
@@ -21674,7 +21680,7 @@
         <v>2632</v>
       </c>
       <c r="E753" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="754" spans="1:5">
@@ -21691,7 +21697,7 @@
         <v>2633</v>
       </c>
       <c r="E754" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="755" spans="1:5">
@@ -21708,7 +21714,7 @@
         <v>2634</v>
       </c>
       <c r="E755" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="756" spans="1:5">
@@ -21725,7 +21731,7 @@
         <v>2635</v>
       </c>
       <c r="E756" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="757" spans="1:5">
@@ -21742,7 +21748,7 @@
         <v>2636</v>
       </c>
       <c r="E757" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="758" spans="1:5">
@@ -21759,7 +21765,7 @@
         <v>2637</v>
       </c>
       <c r="E758" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="759" spans="1:5">
@@ -21776,7 +21782,7 @@
         <v>2638</v>
       </c>
       <c r="E759" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="760" spans="1:5">
@@ -21793,7 +21799,7 @@
         <v>2639</v>
       </c>
       <c r="E760" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="761" spans="1:5">
@@ -21810,7 +21816,7 @@
         <v>2640</v>
       </c>
       <c r="E761" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="762" spans="1:5">
@@ -21827,7 +21833,7 @@
         <v>2641</v>
       </c>
       <c r="E762" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="763" spans="1:5">
@@ -21844,7 +21850,7 @@
         <v>2642</v>
       </c>
       <c r="E763" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="764" spans="1:5">
@@ -21861,7 +21867,7 @@
         <v>2643</v>
       </c>
       <c r="E764" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="765" spans="1:5">
@@ -21878,7 +21884,7 @@
         <v>2644</v>
       </c>
       <c r="E765" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -21895,7 +21901,7 @@
         <v>2645</v>
       </c>
       <c r="E766" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="767" spans="1:5">
@@ -21912,7 +21918,7 @@
         <v>2646</v>
       </c>
       <c r="E767" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="768" spans="1:5">
@@ -21929,7 +21935,7 @@
         <v>2647</v>
       </c>
       <c r="E768" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="769" spans="1:5">
@@ -21946,7 +21952,7 @@
         <v>2648</v>
       </c>
       <c r="E769" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="770" spans="1:5">
@@ -21963,7 +21969,7 @@
         <v>2649</v>
       </c>
       <c r="E770" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="771" spans="1:5">
@@ -21980,7 +21986,7 @@
         <v>2650</v>
       </c>
       <c r="E771" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="772" spans="1:5">
@@ -21997,7 +22003,7 @@
         <v>2651</v>
       </c>
       <c r="E772" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -22014,7 +22020,7 @@
         <v>2652</v>
       </c>
       <c r="E773" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -22031,7 +22037,7 @@
         <v>2653</v>
       </c>
       <c r="E774" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -22048,7 +22054,7 @@
         <v>2654</v>
       </c>
       <c r="E775" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="776" spans="1:5">
@@ -22065,7 +22071,7 @@
         <v>2655</v>
       </c>
       <c r="E776" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -22082,7 +22088,7 @@
         <v>2656</v>
       </c>
       <c r="E777" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="778" spans="1:5">
@@ -22099,7 +22105,7 @@
         <v>2657</v>
       </c>
       <c r="E778" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -22116,7 +22122,7 @@
         <v>2658</v>
       </c>
       <c r="E779" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="780" spans="1:5">
@@ -22133,7 +22139,7 @@
         <v>2659</v>
       </c>
       <c r="E780" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="781" spans="1:5">
@@ -22286,7 +22292,7 @@
         <v>2668</v>
       </c>
       <c r="E789" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="790" spans="1:5">
@@ -22303,7 +22309,7 @@
         <v>2669</v>
       </c>
       <c r="E790" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="791" spans="1:5">
@@ -22320,7 +22326,7 @@
         <v>2670</v>
       </c>
       <c r="E791" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="792" spans="1:5">
@@ -22337,7 +22343,7 @@
         <v>2671</v>
       </c>
       <c r="E792" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="793" spans="1:5">
@@ -22354,7 +22360,7 @@
         <v>2672</v>
       </c>
       <c r="E793" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="794" spans="1:5">
@@ -22371,7 +22377,7 @@
         <v>2673</v>
       </c>
       <c r="E794" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="795" spans="1:5">
@@ -22388,7 +22394,7 @@
         <v>2674</v>
       </c>
       <c r="E795" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="796" spans="1:5">
@@ -22405,7 +22411,7 @@
         <v>2675</v>
       </c>
       <c r="E796" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="797" spans="1:5">
@@ -22422,7 +22428,7 @@
         <v>2676</v>
       </c>
       <c r="E797" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="798" spans="1:5">
@@ -22439,7 +22445,7 @@
         <v>2677</v>
       </c>
       <c r="E798" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="799" spans="1:5">
@@ -22456,7 +22462,7 @@
         <v>2678</v>
       </c>
       <c r="E799" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="800" spans="1:5">
@@ -22473,7 +22479,7 @@
         <v>2679</v>
       </c>
       <c r="E800" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="801" spans="1:5">
@@ -22490,7 +22496,7 @@
         <v>2680</v>
       </c>
       <c r="E801" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="802" spans="1:5">
@@ -22507,7 +22513,7 @@
         <v>2681</v>
       </c>
       <c r="E802" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -22524,7 +22530,7 @@
         <v>2682</v>
       </c>
       <c r="E803" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="804" spans="1:5">
@@ -22541,7 +22547,7 @@
         <v>2683</v>
       </c>
       <c r="E804" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="805" spans="1:5">
@@ -22558,7 +22564,7 @@
         <v>2684</v>
       </c>
       <c r="E805" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="806" spans="1:5">
@@ -22575,7 +22581,7 @@
         <v>2685</v>
       </c>
       <c r="E806" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="807" spans="1:5">
@@ -22592,7 +22598,7 @@
         <v>2686</v>
       </c>
       <c r="E807" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="808" spans="1:5">
@@ -22609,7 +22615,7 @@
         <v>2687</v>
       </c>
       <c r="E808" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="809" spans="1:5">
@@ -22626,7 +22632,7 @@
         <v>2688</v>
       </c>
       <c r="E809" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="810" spans="1:5">
@@ -22643,7 +22649,7 @@
         <v>2689</v>
       </c>
       <c r="E810" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="811" spans="1:5">
@@ -22660,7 +22666,7 @@
         <v>2690</v>
       </c>
       <c r="E811" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="812" spans="1:5">
@@ -22677,7 +22683,7 @@
         <v>2691</v>
       </c>
       <c r="E812" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="813" spans="1:5">
@@ -22708,7 +22714,7 @@
         <v>2692</v>
       </c>
       <c r="E814" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="815" spans="1:5">
@@ -22725,7 +22731,7 @@
         <v>2693</v>
       </c>
       <c r="E815" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="816" spans="1:5">
@@ -22742,7 +22748,7 @@
         <v>2694</v>
       </c>
       <c r="E816" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="817" spans="1:5">
@@ -22759,7 +22765,7 @@
         <v>2695</v>
       </c>
       <c r="E817" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="818" spans="1:5">
@@ -22776,7 +22782,7 @@
         <v>2696</v>
       </c>
       <c r="E818" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="819" spans="1:5">
@@ -22793,7 +22799,7 @@
         <v>2697</v>
       </c>
       <c r="E819" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="820" spans="1:5">
@@ -22810,7 +22816,7 @@
         <v>2698</v>
       </c>
       <c r="E820" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="821" spans="1:5">
@@ -22827,7 +22833,7 @@
         <v>2699</v>
       </c>
       <c r="E821" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="822" spans="1:5">
@@ -22844,7 +22850,7 @@
         <v>2700</v>
       </c>
       <c r="E822" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="823" spans="1:5">
@@ -22861,7 +22867,7 @@
         <v>2701</v>
       </c>
       <c r="E823" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="824" spans="1:5">
@@ -22878,7 +22884,7 @@
         <v>2702</v>
       </c>
       <c r="E824" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="825" spans="1:5">
@@ -22895,7 +22901,7 @@
         <v>2703</v>
       </c>
       <c r="E825" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="826" spans="1:5">
@@ -22912,7 +22918,7 @@
         <v>2704</v>
       </c>
       <c r="E826" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="827" spans="1:5">
@@ -22929,7 +22935,7 @@
         <v>2705</v>
       </c>
       <c r="E827" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="828" spans="1:5">
@@ -22946,7 +22952,7 @@
         <v>2706</v>
       </c>
       <c r="E828" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="829" spans="1:5">
@@ -22963,7 +22969,7 @@
         <v>2707</v>
       </c>
       <c r="E829" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="830" spans="1:5">
@@ -22980,7 +22986,7 @@
         <v>2708</v>
       </c>
       <c r="E830" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="831" spans="1:5">
@@ -22997,7 +23003,7 @@
         <v>2709</v>
       </c>
       <c r="E831" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="832" spans="1:5">
@@ -23014,7 +23020,7 @@
         <v>2710</v>
       </c>
       <c r="E832" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="833" spans="1:5">
@@ -23031,7 +23037,7 @@
         <v>2711</v>
       </c>
       <c r="E833" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="834" spans="1:5">
@@ -23048,7 +23054,7 @@
         <v>2712</v>
       </c>
       <c r="E834" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="835" spans="1:5">
@@ -23065,7 +23071,7 @@
         <v>2713</v>
       </c>
       <c r="E835" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="836" spans="1:5">
@@ -23082,7 +23088,7 @@
         <v>2714</v>
       </c>
       <c r="E836" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="837" spans="1:5">
@@ -23099,7 +23105,7 @@
         <v>2715</v>
       </c>
       <c r="E837" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="838" spans="1:5">
@@ -23116,7 +23122,7 @@
         <v>2716</v>
       </c>
       <c r="E838" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="839" spans="1:5">
@@ -23133,7 +23139,7 @@
         <v>2717</v>
       </c>
       <c r="E839" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="840" spans="1:5">
@@ -23150,7 +23156,7 @@
         <v>2718</v>
       </c>
       <c r="E840" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="841" spans="1:5">
@@ -23167,7 +23173,7 @@
         <v>2719</v>
       </c>
       <c r="E841" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="842" spans="1:5">
@@ -23184,7 +23190,7 @@
         <v>2720</v>
       </c>
       <c r="E842" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="843" spans="1:5">
@@ -23201,7 +23207,7 @@
         <v>2721</v>
       </c>
       <c r="E843" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="844" spans="1:5">
@@ -23218,7 +23224,7 @@
         <v>2722</v>
       </c>
       <c r="E844" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="845" spans="1:5">
@@ -23235,7 +23241,7 @@
         <v>2723</v>
       </c>
       <c r="E845" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="846" spans="1:5">
@@ -23252,7 +23258,7 @@
         <v>2724</v>
       </c>
       <c r="E846" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="847" spans="1:5">
@@ -23269,7 +23275,7 @@
         <v>2725</v>
       </c>
       <c r="E847" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="848" spans="1:5">
@@ -23286,7 +23292,7 @@
         <v>2726</v>
       </c>
       <c r="E848" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="849" spans="1:5">
@@ -23303,7 +23309,7 @@
         <v>2727</v>
       </c>
       <c r="E849" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="850" spans="1:5">
@@ -23320,7 +23326,7 @@
         <v>2728</v>
       </c>
       <c r="E850" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="851" spans="1:5">
@@ -23337,7 +23343,7 @@
         <v>2729</v>
       </c>
       <c r="E851" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="852" spans="1:5">
@@ -23354,7 +23360,7 @@
         <v>2730</v>
       </c>
       <c r="E852" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="853" spans="1:5">
@@ -23371,7 +23377,7 @@
         <v>2731</v>
       </c>
       <c r="E853" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="854" spans="1:5">
@@ -23388,7 +23394,7 @@
         <v>2732</v>
       </c>
       <c r="E854" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="855" spans="1:5">
@@ -23405,7 +23411,7 @@
         <v>2733</v>
       </c>
       <c r="E855" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="856" spans="1:5">
@@ -23422,7 +23428,7 @@
         <v>2734</v>
       </c>
       <c r="E856" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="857" spans="1:5">
@@ -23439,7 +23445,7 @@
         <v>2735</v>
       </c>
       <c r="E857" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="858" spans="1:5">
@@ -23456,7 +23462,7 @@
         <v>2736</v>
       </c>
       <c r="E858" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="859" spans="1:5">
@@ -23473,7 +23479,7 @@
         <v>2737</v>
       </c>
       <c r="E859" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="860" spans="1:5">
@@ -23490,7 +23496,7 @@
         <v>2738</v>
       </c>
       <c r="E860" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="861" spans="1:5">
@@ -23507,7 +23513,7 @@
         <v>2739</v>
       </c>
       <c r="E861" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="862" spans="1:5">
@@ -23524,7 +23530,7 @@
         <v>2740</v>
       </c>
       <c r="E862" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="863" spans="1:5">
@@ -23541,7 +23547,7 @@
         <v>2741</v>
       </c>
       <c r="E863" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="864" spans="1:5">
@@ -23558,7 +23564,7 @@
         <v>2742</v>
       </c>
       <c r="E864" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="865" spans="1:5">
@@ -23575,7 +23581,7 @@
         <v>2743</v>
       </c>
       <c r="E865" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="866" spans="1:5">
@@ -23592,7 +23598,7 @@
         <v>2744</v>
       </c>
       <c r="E866" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="867" spans="1:5">
@@ -23609,7 +23615,7 @@
         <v>2745</v>
       </c>
       <c r="E867" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="868" spans="1:5">
@@ -23626,7 +23632,7 @@
         <v>2746</v>
       </c>
       <c r="E868" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="869" spans="1:5">
@@ -23643,7 +23649,7 @@
         <v>2747</v>
       </c>
       <c r="E869" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="870" spans="1:5">
@@ -23660,7 +23666,7 @@
         <v>2748</v>
       </c>
       <c r="E870" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="871" spans="1:5">
@@ -23677,7 +23683,7 @@
         <v>2749</v>
       </c>
       <c r="E871" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="872" spans="1:5">
@@ -23694,7 +23700,7 @@
         <v>2750</v>
       </c>
       <c r="E872" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="873" spans="1:5">
@@ -23711,7 +23717,7 @@
         <v>2751</v>
       </c>
       <c r="E873" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="874" spans="1:5">
@@ -23728,7 +23734,7 @@
         <v>2752</v>
       </c>
       <c r="E874" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="875" spans="1:5">
@@ -23745,7 +23751,7 @@
         <v>2753</v>
       </c>
       <c r="E875" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="876" spans="1:5">
@@ -23762,7 +23768,7 @@
         <v>2754</v>
       </c>
       <c r="E876" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="877" spans="1:5">
@@ -23779,7 +23785,7 @@
         <v>2755</v>
       </c>
       <c r="E877" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="878" spans="1:5">
@@ -23796,7 +23802,7 @@
         <v>2756</v>
       </c>
       <c r="E878" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="879" spans="1:5">
@@ -23812,6 +23818,9 @@
       <c r="D879" t="s">
         <v>2757</v>
       </c>
+      <c r="E879" t="s">
+        <v>2859</v>
+      </c>
     </row>
     <row r="880" spans="1:5">
       <c r="A880" s="1">
@@ -23827,7 +23836,7 @@
         <v>2758</v>
       </c>
       <c r="E880" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="881" spans="1:5">
@@ -23844,7 +23853,7 @@
         <v>2759</v>
       </c>
       <c r="E881" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="882" spans="1:5">
@@ -23861,7 +23870,7 @@
         <v>2760</v>
       </c>
       <c r="E882" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="883" spans="1:5">
@@ -23878,7 +23887,7 @@
         <v>2761</v>
       </c>
       <c r="E883" t="s">
-        <v>2884</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="884" spans="1:5">
@@ -23895,7 +23904,7 @@
         <v>2762</v>
       </c>
       <c r="E884" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="885" spans="1:5">
@@ -23912,7 +23921,7 @@
         <v>2763</v>
       </c>
       <c r="E885" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="886" spans="1:5">
@@ -23928,6 +23937,9 @@
       <c r="D886" t="s">
         <v>2764</v>
       </c>
+      <c r="E886" t="s">
+        <v>2859</v>
+      </c>
     </row>
     <row r="887" spans="1:5">
       <c r="A887" s="1">
@@ -23943,7 +23955,7 @@
         <v>2765</v>
       </c>
       <c r="E887" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="888" spans="1:5">
@@ -23960,7 +23972,7 @@
         <v>2766</v>
       </c>
       <c r="E888" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="889" spans="1:5">
@@ -23977,7 +23989,7 @@
         <v>2767</v>
       </c>
       <c r="E889" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="890" spans="1:5">
@@ -23994,7 +24006,7 @@
         <v>2768</v>
       </c>
       <c r="E890" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="891" spans="1:5">
@@ -24011,7 +24023,7 @@
         <v>2769</v>
       </c>
       <c r="E891" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="892" spans="1:5">
@@ -24028,7 +24040,7 @@
         <v>2770</v>
       </c>
       <c r="E892" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="893" spans="1:5">
@@ -24045,7 +24057,7 @@
         <v>2771</v>
       </c>
       <c r="E893" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="894" spans="1:5">
@@ -24062,7 +24074,7 @@
         <v>2772</v>
       </c>
       <c r="E894" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="895" spans="1:5">
@@ -24079,7 +24091,7 @@
         <v>2773</v>
       </c>
       <c r="E895" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="896" spans="1:5">
@@ -24130,7 +24142,7 @@
         <v>2776</v>
       </c>
       <c r="E898" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="899" spans="1:5">
@@ -24164,7 +24176,7 @@
         <v>2778</v>
       </c>
       <c r="E900" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="901" spans="1:5">
@@ -24215,7 +24227,7 @@
         <v>2781</v>
       </c>
       <c r="E903" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="904" spans="1:5">
@@ -24232,7 +24244,7 @@
         <v>2782</v>
       </c>
       <c r="E904" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="905" spans="1:5">
@@ -24266,7 +24278,7 @@
         <v>2784</v>
       </c>
       <c r="E906" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="907" spans="1:5">
@@ -24283,7 +24295,7 @@
         <v>2785</v>
       </c>
       <c r="E907" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="908" spans="1:5">
@@ -24317,7 +24329,7 @@
         <v>2787</v>
       </c>
       <c r="E909" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="910" spans="1:5">
@@ -24334,7 +24346,7 @@
         <v>2788</v>
       </c>
       <c r="E910" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="911" spans="1:5">
@@ -24351,7 +24363,7 @@
         <v>2789</v>
       </c>
       <c r="E911" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="912" spans="1:5">
@@ -24368,7 +24380,7 @@
         <v>2790</v>
       </c>
       <c r="E912" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="913" spans="1:5">
@@ -24385,7 +24397,7 @@
         <v>2791</v>
       </c>
       <c r="E913" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="914" spans="1:5">
@@ -24402,7 +24414,7 @@
         <v>2792</v>
       </c>
       <c r="E914" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="915" spans="1:5">
@@ -24419,7 +24431,7 @@
         <v>2793</v>
       </c>
       <c r="E915" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="916" spans="1:5">
@@ -24436,7 +24448,7 @@
         <v>2794</v>
       </c>
       <c r="E916" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="917" spans="1:5">
@@ -24453,7 +24465,7 @@
         <v>2795</v>
       </c>
       <c r="E917" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="918" spans="1:5">
@@ -24470,7 +24482,7 @@
         <v>2796</v>
       </c>
       <c r="E918" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="919" spans="1:5">
@@ -24504,7 +24516,7 @@
         <v>2798</v>
       </c>
       <c r="E920" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="921" spans="1:5">
@@ -24521,7 +24533,7 @@
         <v>2799</v>
       </c>
       <c r="E921" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="922" spans="1:5">
@@ -24538,7 +24550,7 @@
         <v>2800</v>
       </c>
       <c r="E922" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="923" spans="1:5">
@@ -24572,7 +24584,7 @@
         <v>2802</v>
       </c>
       <c r="E924" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="925" spans="1:5">
@@ -24589,7 +24601,7 @@
         <v>2803</v>
       </c>
       <c r="E925" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="926" spans="1:5">
@@ -24606,7 +24618,7 @@
         <v>2804</v>
       </c>
       <c r="E926" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="927" spans="1:5">
@@ -24657,7 +24669,7 @@
         <v>2807</v>
       </c>
       <c r="E929" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="930" spans="1:5">
@@ -24674,7 +24686,7 @@
         <v>2808</v>
       </c>
       <c r="E930" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="931" spans="1:5">
@@ -24742,7 +24754,7 @@
         <v>2812</v>
       </c>
       <c r="E934" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="935" spans="1:5">
@@ -24759,7 +24771,7 @@
         <v>2813</v>
       </c>
       <c r="E935" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="936" spans="1:5">
@@ -24827,7 +24839,7 @@
         <v>2817</v>
       </c>
       <c r="E939" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="940" spans="1:5">
@@ -24844,7 +24856,7 @@
         <v>2818</v>
       </c>
       <c r="E940" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="941" spans="1:5">
@@ -24912,7 +24924,7 @@
         <v>2822</v>
       </c>
       <c r="E944" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="945" spans="1:5">
@@ -24929,7 +24941,7 @@
         <v>2823</v>
       </c>
       <c r="E945" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="946" spans="1:5">
@@ -24946,7 +24958,7 @@
         <v>2824</v>
       </c>
       <c r="E946" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="947" spans="1:5">
@@ -24963,7 +24975,7 @@
         <v>2825</v>
       </c>
       <c r="E947" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="948" spans="1:5">
@@ -25014,7 +25026,7 @@
         <v>2828</v>
       </c>
       <c r="E950" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="951" spans="1:5">
@@ -25030,6 +25042,9 @@
       <c r="D951" t="s">
         <v>2829</v>
       </c>
+      <c r="E951" t="s">
+        <v>2859</v>
+      </c>
     </row>
     <row r="952" spans="1:5">
       <c r="A952" s="1">
@@ -25045,7 +25060,7 @@
         <v>2830</v>
       </c>
       <c r="E952" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="953" spans="1:5">
@@ -25062,7 +25077,7 @@
         <v>2831</v>
       </c>
       <c r="E953" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="954" spans="1:5">
@@ -25079,7 +25094,7 @@
         <v>2832</v>
       </c>
       <c r="E954" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="955" spans="1:5">
@@ -25096,7 +25111,7 @@
         <v>2833</v>
       </c>
       <c r="E955" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="956" spans="1:5">
@@ -25181,7 +25196,7 @@
         <v>2836</v>
       </c>
       <c r="E960" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="961" spans="1:5">
@@ -25198,7 +25213,7 @@
         <v>2837</v>
       </c>
       <c r="E961" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="962" spans="1:5">
@@ -25215,7 +25230,7 @@
         <v>2838</v>
       </c>
       <c r="E962" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="963" spans="1:5">
@@ -25232,7 +25247,7 @@
         <v>2839</v>
       </c>
       <c r="E963" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="964" spans="1:5">
@@ -25249,7 +25264,7 @@
         <v>2840</v>
       </c>
       <c r="E964" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="965" spans="1:5">
@@ -25265,6 +25280,9 @@
       <c r="D965" t="s">
         <v>2841</v>
       </c>
+      <c r="E965" t="s">
+        <v>2859</v>
+      </c>
     </row>
     <row r="966" spans="1:5">
       <c r="A966" s="1">
@@ -25280,7 +25298,7 @@
         <v>2842</v>
       </c>
       <c r="E966" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="967" spans="1:5">
@@ -25313,6 +25331,9 @@
       <c r="D968" t="s">
         <v>2844</v>
       </c>
+      <c r="E968" t="s">
+        <v>2859</v>
+      </c>
     </row>
     <row r="969" spans="1:5">
       <c r="A969" s="1">
@@ -25327,6 +25348,9 @@
       <c r="D969" t="s">
         <v>2845</v>
       </c>
+      <c r="E969" t="s">
+        <v>2859</v>
+      </c>
     </row>
     <row r="970" spans="1:5">
       <c r="A970" s="1">
@@ -25341,6 +25365,9 @@
       <c r="D970" t="s">
         <v>2846</v>
       </c>
+      <c r="E970" t="s">
+        <v>2859</v>
+      </c>
     </row>
     <row r="971" spans="1:5">
       <c r="A971" s="1">
@@ -25354,6 +25381,9 @@
       </c>
       <c r="D971" t="s">
         <v>2847</v>
+      </c>
+      <c r="E971" t="s">
+        <v>2859</v>
       </c>
     </row>
   </sheetData>
